--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_237.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_237.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,313 +488,320 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0)]</t>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:01.340000', '0:00:08.860000'), ('0:00:54.180000', '0:01:01.460000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['D/5', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[('0:02:13.780000', '0:02:15.340000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:27.963197', '0:00:36.229501')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(14.52, 59.04)]</t>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:41.080000', '0:00:43.340000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:18.240000', '0:00:29.100000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[('0:00:12.700000', '0:00:27.180000'), ('0:00:56.440000', '0:01:06.340000'), ('0:00:00.360000', '0:00:07.140000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:35.820000', '0:00:37.760000'), ('0:00:35.600000', '0:00:37.240000'), ('0:00:08.460000', '0:00:13.460000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(113.14, 114.88)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
+          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>schubert-winterreise_74</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+          <t>[('0:02:09.380000', '0:02:14.740000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -798,405 +810,380 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (65.9, 72.44)]</t>
+          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D', 'D/b7', 'G/3']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3760683760683761</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'C']]</t>
+          <t>[['F/2', 'C', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(32.879478, 37.291269)]</t>
+          <t>[['D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.090897, 16.615704)]</t>
+          <t>[('0:00:57.758000', '0:01:05.204000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:01:42.174263', '0:01:55.003287')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (55.72, 64.64), (0.82, 6.76)]</t>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1291208791208791</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'A/b7']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'E']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(43.998185, 47.539229)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.346961, 13.218526)]</t>
+          <t>[('0:00:01.440000', '0:00:06.840000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.7, 21.42)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[('0:01:14.500000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86)]</t>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.82, 107.92)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.9, 101.9)]</t>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1045673076923077</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'A/7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(5.346961, 13.218526)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(83.103979, 86.183398)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
